--- a/biology/Botanique/Stigmina_carpophila/Stigmina_carpophila.xlsx
+++ b/biology/Botanique/Stigmina_carpophila/Stigmina_carpophila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stigmina carpophila est une espèce de champignons ascomycètes de la famille des Mycosphaerellaceae. Cette espèce cosmopolite, parasite des végétaux, est responsable de la criblure ou maladie criblée des arbres fruitiers.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Species Fungorum[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Species Fungorum :
 Wilsonomyces carpophilus (Lév.) Adask., J.M. Ogawa &amp; E.E. Butler (1990)
 Thyrostroma carpophilum (Lév.) B. Sutton (1997)
 Sciniatosporium carpophilum (Lév.) Morgan-Jones (1971)
@@ -564,9 +578,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les conidies sont sombres en forme de fuseau et mesurent 30-60 X 9-18 µ. Elles comportent 3 à 7 cloisons noires transversales et parfois une ou deux cloisons longitudinales ou obliques[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conidies sont sombres en forme de fuseau et mesurent 30-60 X 9-18 µ. Elles comportent 3 à 7 cloisons noires transversales et parfois une ou deux cloisons longitudinales ou obliques,.
 </t>
         </is>
       </c>
@@ -595,7 +611,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie se manifeste chez différentes espèces d'arbres fruitiers à noyau, d'abord sur les jeunes feuilles par des points rouges dispersés, qui virent au brun rougeâtre après quelques jours. 
 La plante entame alors une réaction de défense pour marginaliser et exclure le champignon.
